--- a/Timesheets/Semester2/Week02_2021-01-25/Sahib_Bajwa-2021_01_25.xlsx
+++ b/Timesheets/Semester2/Week02_2021-01-25/Sahib_Bajwa-2021_01_25.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Boulder\Capstone\Time Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70EAD68F-1711-413F-93AF-CE53DA9EA18E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E5D6E70-F4C4-44D6-9301-52277A25CD91}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16320" yWindow="-2730" windowWidth="16440" windowHeight="28590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,9 +38,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
     <t>Task</t>
   </si>
   <si>
@@ -93,6 +90,9 @@
   </si>
   <si>
     <t>Experimenting</t>
+  </si>
+  <si>
+    <t>Date 25 Jan</t>
   </si>
 </sst>
 </file>
@@ -214,13 +214,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53"/>
@@ -505,7 +505,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B4" sqref="B4:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,11 +526,11 @@
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
+      <c r="B1" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
       <c r="G1" s="10"/>
@@ -539,13 +539,13 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
+        <v>14</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
@@ -565,56 +565,56 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
-      <c r="B4" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
+      <c r="B4" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
       <c r="I4" s="10"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="15">
+        <v>1</v>
+      </c>
+      <c r="B5" s="13">
         <v>44221</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="13">
         <f>B5+1</f>
         <v>44222</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="13">
         <f t="shared" ref="D5:H5" si="0">C5+1</f>
         <v>44223</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="13">
         <f t="shared" si="0"/>
         <v>44224</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="13">
         <f t="shared" si="0"/>
         <v>44225</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="13">
         <f t="shared" si="0"/>
         <v>44226</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="13">
         <f t="shared" si="0"/>
         <v>44227</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1">
         <v>1.5</v>
@@ -633,7 +633,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -650,7 +650,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1">
@@ -669,7 +669,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -686,7 +686,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -707,7 +707,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11" s="5">
         <f t="shared" ref="B11:H11" si="3">SUM(B6:B10)</f>
@@ -745,37 +745,37 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
